--- a/AnimationData.xlsx
+++ b/AnimationData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Fwd.Dive_Fwd'</t>
-  </si>
-  <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dive_Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dive_Backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dive_Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dive_Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Backward.Dive_Backward'</t>
+  </si>
+  <si>
+    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Forward.Dive_Forward'</t>
+  </si>
+  <si>
+    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Left.Dive_Left'</t>
+  </si>
+  <si>
+    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Right.Dive_Right'</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Rt_Montage.DoubleShot_Fire_Rt_Montage'</t>
+  </si>
+  <si>
+    <t>DoubleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Lft_Montage.DoubleShot_Fire_Lft_Montage'</t>
   </si>
 </sst>
 </file>
@@ -376,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -395,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -409,17 +444,88 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AnimationData.xlsx
+++ b/AnimationData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,48 @@
   </si>
   <si>
     <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Lft_Montage.DoubleShot_Fire_Lft_Montage'</t>
+  </si>
+  <si>
+    <t>ChargeBlast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Montage.Ability_ChargeBlast_Montage'</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltimateMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBlastMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Start_Montage.Ability_VortexGrenade_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Start_Montage.Ability_ChargeBlast_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Start_Montage.Ability_Ultimate_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Montage.Ability_Ultimate_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Montage.Ability_VortexGrenade_Montage'</t>
   </si>
 </sst>
 </file>
@@ -411,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,10 +514,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -486,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -500,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -514,12 +556,96 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>

--- a/AnimationData.xlsx
+++ b/AnimationData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,88 +42,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Rt_Montage.DoubleShot_Fire_Rt_Montage'</t>
+  </si>
+  <si>
+    <t>DoubleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Lft_Montage.DoubleShot_Fire_Lft_Montage'</t>
+  </si>
+  <si>
+    <t>ChargeBlast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Montage.Ability_ChargeBlast_Montage'</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltimateMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBlastMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Start_Montage.Ability_VortexGrenade_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Start_Montage.Ability_ChargeBlast_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Start_Montage.Ability_Ultimate_Start_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Montage.Ability_Ultimate_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Montage.Ability_VortexGrenade_Montage'</t>
+  </si>
+  <si>
     <t>Dive_Forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Dives/Dive_Fwd_Montage.Dive_Fwd_Montage'</t>
   </si>
   <si>
     <t>Dive_Backward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Dives/Dive_Bwd_Montage.Dive_Bwd_Montage'</t>
   </si>
   <si>
     <t>Dive_Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Dives/Dive_Right_Montage.Dive_Right_Montage'</t>
   </si>
   <si>
     <t>Dive_Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Backward.Dive_Backward'</t>
-  </si>
-  <si>
-    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Forward.Dive_Forward'</t>
-  </si>
-  <si>
-    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Left.Dive_Left'</t>
-  </si>
-  <si>
-    <t>AnimComposite'/Game/Characters/TwinBlast/Animations/Dives/Dive_Right.Dive_Right'</t>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Rt_Montage.DoubleShot_Fire_Rt_Montage'</t>
-  </si>
-  <si>
-    <t>DoubleAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/DoubleShot/DoubleShot_Fire_Lft_Montage.DoubleShot_Fire_Lft_Montage'</t>
-  </si>
-  <si>
-    <t>ChargeBlast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Montage.Ability_ChargeBlast_Montage'</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UltimateMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBlastMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrenadeMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Start_Montage.Ability_VortexGrenade_Start_Montage'</t>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/ChargeBlast/Ability_ChargeBlast_Start_Montage.Ability_ChargeBlast_Start_Montage'</t>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Start_Montage.Ability_Ultimate_Start_Montage'</t>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Ultimate/Ability_Ultimate_Montage.Ability_Ultimate_Montage'</t>
-  </si>
-  <si>
-    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Grenade/Ability_VortexGrenade_Montage.Ability_VortexGrenade_Montage'</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Dives/Dive_Left_Montage.Dive_Left_Montage'</t>
+  </si>
+  <si>
+    <t>Hitted</t>
+  </si>
+  <si>
+    <t>AnimMontage'/Game/Characters/TwinBlast/Animations/Hits/HitReact_Front_Montage.HitReact_Front_Montage'</t>
   </si>
 </sst>
 </file>
@@ -453,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -500,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -514,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -528,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -542,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -556,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -570,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -584,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -598,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -612,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -626,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -640,12 +642,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
